--- a/algolab_problems.xlsx
+++ b/algolab_problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/16111acca6e570da/Desktop/Uni/Algolab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1254" documentId="11_F25DC773A252ABDACC104886495A5D865ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B026B074-C4AA-41CE-893D-F9A0341BB02A}"/>
+  <xr:revisionPtr revIDLastSave="1270" documentId="11_F25DC773A252ABDACC104886495A5D865ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5D9EA9-954A-43D9-93FB-A5FEDF653A58}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="329">
   <si>
     <t>Name</t>
   </si>
@@ -1390,12 +1390,15 @@
     <t xml:space="preserve">
 </t>
   </si>
+  <si>
+    <t>Partial Sums</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,13 +1429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1447,7 +1443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1466,11 +1462,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1481,11 +1472,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1498,15 +1488,10 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
@@ -1662,13 +1647,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19048</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>3714201</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>2085975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,13 +1691,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1990990</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1750,13 +1735,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>1457326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4067175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>2273813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,13 +1779,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>33998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4086225</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>2670200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1841,7 +1826,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50759A50-EB5F-4613-9007-B9DCB01F704B}" name="Table4" displayName="Table4" ref="A1:L63" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:L63" xr:uid="{50759A50-EB5F-4613-9007-B9DCB01F704B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L63">
-    <sortCondition descending="1" ref="K1:K63"/>
+    <sortCondition ref="B1:B63"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{DD2663EB-3918-473B-83A3-3FF680D98463}" name="Name" dataDxfId="15"/>
@@ -1862,8 +1847,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2AB47980-0674-4E94-88EB-42353063FFD8}" name="Table5" displayName="Table5" ref="A1:B17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B17" xr:uid="{2AB47980-0674-4E94-88EB-42353063FFD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2AB47980-0674-4E94-88EB-42353063FFD8}" name="Table5" displayName="Table5" ref="A1:B18" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B18" xr:uid="{2AB47980-0674-4E94-88EB-42353063FFD8}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9BFBF40B-F193-4F67-B189-DB29836CBB39}" name="Acronym" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{3A19C8D5-261C-4ECA-B12B-B9A7438ACA50}" name="Algorithm" dataDxfId="0"/>
@@ -2138,7 +2123,7 @@
   <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,375 +2182,369 @@
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>139</v>
+        <v>326</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="K3" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J4" s="3" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="K4" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>217</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K5" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K7" s="3">
-        <v>9</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="3">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>269</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
-        <v>9</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>279</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="K9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="3" t="s">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="K10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>297</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J11" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="3">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -2575,362 +2554,350 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>320</v>
+        <v>104</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <v>8</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="3" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>172</v>
+        <v>317</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="K17" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3">
         <v>8</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="K20" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J21" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="K21" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="B22" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="B23" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>306</v>
+        <v>111</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>308</v>
+        <v>98</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>305</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>304</v>
+        <v>97</v>
       </c>
       <c r="K23" s="3">
         <v>8</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="B24" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>30</v>
@@ -2940,58 +2907,56 @@
         <v>136</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="K25" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B26" s="3">
         <v>6</v>
@@ -2999,66 +2964,70 @@
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>136</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="K26" s="3">
-        <v>7</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="3">
         <v>7</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" ht="210" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="3">
-        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
@@ -3068,254 +3037,250 @@
         <v>162</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>223</v>
-      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="3">
         <v>7</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="3">
-        <v>12</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>226</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="3">
         <v>7</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" s="3">
-        <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="K30" s="3">
+        <v>8</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="3">
         <v>7</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B31" s="3">
-        <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
+        <v>5</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="3">
         <v>7</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="3">
-        <v>13</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>311</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="K33" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K34" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B35" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L35" s="3"/>
     </row>
@@ -3351,81 +3316,77 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="B37" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="B38" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="B39" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3433,803 +3394,827 @@
         <v>23</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="J39" s="3"/>
       <c r="K39" s="3">
-        <v>6</v>
-      </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="B40" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="K40" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="B41" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="K41" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="B42" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B43" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="K44" s="3">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="B45" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="3">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="B46" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="B47" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>121</v>
+        <v>235</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="B48" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="E48" s="3" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="J48" s="3"/>
       <c r="K48" s="3">
         <v>4</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="B49" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="I49" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="B50" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
-        <v>289</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="3">
-        <v>4</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="B51" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="E51" s="3" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I51" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3">
-        <v>4</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E52" s="3" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="I52" s="3"/>
-      <c r="J52" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J52" s="3"/>
       <c r="K52" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="345" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="B53" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="K53" s="3">
-        <v>3</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>57</v>
+        <v>282</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="B55" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="K55" s="3">
-        <v>3</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="B56" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K57" s="3">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="3">
         <v>13</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3">
-        <v>2</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="E58" s="3" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="B59" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E59" s="3" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="3"/>
+        <v>303</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="B60" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E60" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K60" s="3">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" s="3">
         <v>13</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="3">
-        <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I61" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="J61" s="3" t="s">
-        <v>85</v>
+        <v>311</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
       <c r="B62" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E62" s="3" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>87</v>
+        <v>314</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>88</v>
+        <v>327</v>
       </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B63" s="4">
-        <v>10</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F63" s="4" t="s">
+    <row r="63" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="3">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>325</v>
-      </c>
+      <c r="G63" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K63" s="3">
+        <v>9</v>
+      </c>
+      <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
@@ -4677,10 +4662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4238F310-4F94-4C3B-BFB1-B1A41B3D9A95}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B22:B23"/>
+      <selection activeCell="B18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,139 +4675,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
